--- a/Utilisateurs et groupes Kicroit.xlsx
+++ b/Utilisateurs et groupes Kicroit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px65goi\Documents\pré-tpi\Semaine 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px65goi\Documents\TPI Andrea Fontana\TPI-Infrastrucutre-d-une-PME-avec-deux-sites-distants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514DAEFA-AE67-4AA0-977A-ACF1ED5688B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5F8AB-E9AD-43BA-8995-408E4C5B3C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6D976660-14A3-4AC6-AEAC-799E4D17354F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D976660-14A3-4AC6-AEAC-799E4D17354F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>admin</t>
   </si>
@@ -54,19 +54,25 @@
     <t>Utilisateurs &amp; Groupes</t>
   </si>
   <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Employés</t>
-  </si>
-  <si>
-    <t>Andrea AF. Fontana</t>
-  </si>
-  <si>
-    <t>Vitor VC. Coval</t>
-  </si>
-  <si>
-    <t>Amer AH. Husic</t>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Finances</t>
+  </si>
+  <si>
+    <t>Jean Dupont</t>
+  </si>
+  <si>
+    <t>Marie Martin</t>
+  </si>
+  <si>
+    <t>Pierre Lefevre</t>
+  </si>
+  <si>
+    <t>Sophie Durand</t>
+  </si>
+  <si>
+    <t>Lucie Bernard</t>
   </si>
 </sst>
 </file>
@@ -678,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A331FD3-63FD-4340-8533-4324DE4C9E3E}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,20 +779,50 @@
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
